--- a/SCH-STH/Impact assessments/Benin/bj_sch_sth_impact_3_kato_katz_202204.xlsx
+++ b/SCH-STH/Impact assessments/Benin/bj_sch_sth_impact_3_kato_katz_202204.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\BENIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EF846D-AFD2-41A8-8479-589C748BB2EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE10FF04-2DF6-4B11-AF8A-B6C8090F4FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,9 +933,6 @@
     <t>Please enter your 2 digits code</t>
   </si>
   <si>
-    <t>Exemple: 123-01. Il s'agit du code de l'école suivi d'un tiret puis du numéro d'ordre du participant sur deux chiffres.</t>
-  </si>
-  <si>
     <t>Veuillez entrer le code du participant. Exemple 123-01</t>
   </si>
   <si>
@@ -979,6 +976,9 @@
   </si>
   <si>
     <t>Ascaris lumbricoides (nombre d'œufs)</t>
+  </si>
+  <si>
+    <t>Entrez le code de l'enfant exactement tel qu'il a été généré dans le formulaire 2. Exemple: 123-123-A</t>
   </si>
 </sst>
 </file>
@@ -1590,10 +1590,10 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1829,7 +1829,7 @@
         <v>58</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7" t="s">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1861,7 +1861,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -1890,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="38"/>
@@ -4046,13 +4046,13 @@
         <v>129</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G119" t="s">
         <v>100</v>
@@ -4233,13 +4233,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G130" t="s">
         <v>95</v>
@@ -4403,13 +4403,13 @@
         <v>129</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G140" t="s">
         <v>81</v>
@@ -4471,13 +4471,13 @@
         <v>129</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G144" t="s">
         <v>83</v>
@@ -4658,13 +4658,13 @@
         <v>129</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G155" t="s">
         <v>94</v>
@@ -4692,13 +4692,13 @@
         <v>129</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G157" t="s">
         <v>76</v>
@@ -4794,13 +4794,13 @@
         <v>129</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G163" t="s">
         <v>111</v>
@@ -5151,13 +5151,13 @@
         <v>129</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G184" t="s">
         <v>95</v>
@@ -5304,13 +5304,13 @@
         <v>129</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G193" t="s">
         <v>100</v>
@@ -5525,13 +5525,13 @@
         <v>129</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G206" t="s">
         <v>94</v>
@@ -5576,13 +5576,13 @@
         <v>129</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G209" t="s">
         <v>111</v>
@@ -5661,13 +5661,13 @@
         <v>129</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G214" t="s">
         <v>83</v>
@@ -6401,7 +6401,7 @@
         <v>128</v>
       </c>
       <c r="H258" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -6605,7 +6605,7 @@
         <v>140</v>
       </c>
       <c r="H270" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -6622,7 +6622,7 @@
         <v>141</v>
       </c>
       <c r="H271" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -6656,7 +6656,7 @@
         <v>143</v>
       </c>
       <c r="H273" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -6673,7 +6673,7 @@
         <v>144</v>
       </c>
       <c r="H274" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -6707,7 +6707,7 @@
         <v>146</v>
       </c>
       <c r="H276" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -6724,7 +6724,7 @@
         <v>147</v>
       </c>
       <c r="H277" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -6792,7 +6792,7 @@
         <v>151</v>
       </c>
       <c r="H281" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -6809,7 +6809,7 @@
         <v>152</v>
       </c>
       <c r="H282" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -6928,7 +6928,7 @@
         <v>159</v>
       </c>
       <c r="H289" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7489,7 +7489,7 @@
         <v>192</v>
       </c>
       <c r="H322" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -7506,7 +7506,7 @@
         <v>193</v>
       </c>
       <c r="H323" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="324" spans="1:8">
